--- a/results/All(500) config 4.xlsx
+++ b/results/All(500) config 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Medien\Dokumente\UNI\Datamining\DataMiningProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Medien\Dokumente\UNI\Datamining\DataMiningProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84C308-ED45-4C37-A04C-DAF374537BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077D49C3-833E-4F6E-91F4-C72898BE7AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="18900" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,73 +708,73 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,13 +788,13 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,73 +808,73 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,73 +888,73 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,13 +968,13 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,13 +988,13 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,153 +1008,153 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,93 +1168,93 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,113 +1268,113 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
